--- a/Sample_dissimilarity_matrix.xlsx
+++ b/Sample_dissimilarity_matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelle/Documents/mis373/a1/UGCA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B924E54E-C3B8-DF42-8E46-845A86EC5799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971C01B7-F7DD-7745-B763-9CAE7D2DA385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="3780" windowWidth="27640" windowHeight="15440" xr2:uid="{CC062B8E-8F50-7D48-AB69-06BAE843C8C6}"/>
+    <workbookView xWindow="780" yWindow="1040" windowWidth="27640" windowHeight="15440" xr2:uid="{CC062B8E-8F50-7D48-AB69-06BAE843C8C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="11">
   <si>
     <t>audi</t>
   </si>
@@ -420,7 +420,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,6 +496,9 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
       <c r="C3">
         <v>0</v>
       </c>
@@ -721,6 +724,9 @@
       <c r="G9" t="s">
         <v>10</v>
       </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
       <c r="I9">
         <v>0</v>
       </c>
@@ -785,16 +791,7 @@
       <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
       <c r="H11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
         <v>10</v>
       </c>
       <c r="K11">
